--- a/7_Data_Extraction/Data_Extraction_Dario.xlsx
+++ b/7_Data_Extraction/Data_Extraction_Dario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/7_Data_Extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108F5E45-1C7B-C845-B0DD-CE7094484E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B88D9A-5E7C-4742-9EEF-BFEDDFFF5C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1840" yWindow="2620" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="492">
   <si>
     <t>ID</t>
   </si>
@@ -1478,12 +1478,6 @@
     <t>RQ2.2</t>
   </si>
   <si>
-    <t>RQ4.1</t>
-  </si>
-  <si>
-    <t>RQ4.2</t>
-  </si>
-  <si>
     <t>Hettiarachchi, Charitha and Do, Hyunsook</t>
   </si>
   <si>
@@ -1505,7 +1499,16 @@
     <t>a systematic requirements and risks-based test case prioritization using a fuzzy expert system the use of risk information can help software engineers identify software components that are likely vulnerable or require extra attention when testing. some studies have shown that the requirements risk-based approaches can be effective in improving the effectiveness of regression testing techniques. however, the risk estimation processes used in such approaches can be subjective, time-consuming, and costly. in this research, we introduce a fuzzy expert system that emulates human thinking to address the subjectivity related issues in the risk estimation process in a systematic and an efficient way and thus further improve the effectiveness of test case prioritization. further, the required data for our approach was gathered by employing a semi-automated process that made the risk estimation process less subjective. the empirical results indicate that the new prioritization approach can improve the rate of fault detection over several existing test case prioritization techniques, while reducing threats to subjective risk estimation.</t>
   </si>
   <si>
-    <t>RQ3</t>
+    <t>RQ1.3a</t>
+  </si>
+  <si>
+    <t>RQ2.3</t>
+  </si>
+  <si>
+    <t>RQ3.1</t>
+  </si>
+  <si>
+    <t>RQ3.2</t>
   </si>
 </sst>
 </file>
@@ -1892,15 +1895,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX52"/>
+  <dimension ref="A1:AW52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AX15" sqref="AX15"/>
+      <selection activeCell="AY9" sqref="AY9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2031,24 +2034,25 @@
         <v>478</v>
       </c>
       <c r="AR1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AW1" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8854718</v>
       </c>
@@ -2056,13 +2060,13 @@
         <v>44</v>
       </c>
       <c r="C2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E2" t="s">
         <v>483</v>
-      </c>
-      <c r="D2" t="s">
-        <v>484</v>
-      </c>
-      <c r="E2" t="s">
-        <v>485</v>
       </c>
       <c r="F2">
         <v>2019</v>
@@ -2071,25 +2075,25 @@
         <v>196</v>
       </c>
       <c r="J2" t="s">
+        <v>484</v>
+      </c>
+      <c r="K2" t="s">
+        <v>485</v>
+      </c>
+      <c r="L2" t="s">
         <v>486</v>
-      </c>
-      <c r="K2" t="s">
-        <v>487</v>
-      </c>
-      <c r="L2" t="s">
-        <v>488</v>
       </c>
       <c r="N2" t="s">
         <v>404</v>
       </c>
       <c r="AM2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AN2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>8536351</v>
       </c>
@@ -2127,7 +2131,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>7272924</v>
       </c>
@@ -2168,7 +2172,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>9741963</v>
       </c>
@@ -2209,7 +2213,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10675922</v>
       </c>
@@ -2253,7 +2257,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10229439</v>
       </c>
@@ -2297,7 +2301,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8625203</v>
       </c>
@@ -2338,7 +2342,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6649891</v>
       </c>
@@ -2382,7 +2386,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10911525</v>
       </c>
@@ -2423,7 +2427,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10196878</v>
       </c>
@@ -2467,7 +2471,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10366665</v>
       </c>
@@ -2511,7 +2515,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>7589817</v>
       </c>
@@ -2552,7 +2556,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7381799</v>
       </c>
@@ -2593,7 +2597,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>9103716</v>
       </c>
@@ -2634,7 +2638,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10621714</v>
       </c>

--- a/7_Data_Extraction/Data_Extraction_Dario.xlsx
+++ b/7_Data_Extraction/Data_Extraction_Dario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29101"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/7_Data_Extraction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://communitystudentiunina.sharepoint.com/sites/PRINMEDITATE/Shared Documents/SLR/RegressionTestingOptimizationSLR/7_Data_Extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{99B88D9A-5E7C-4742-9EEF-BFEDDFFF5C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28EF2CCA-3E85-4F2E-BF7B-D507675D3275}"/>
+  <xr:revisionPtr revIDLastSave="402" documentId="13_ncr:1_{99B88D9A-5E7C-4742-9EEF-BFEDDFFF5C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA4406B9-072D-7A4B-AD0E-F6A1D6FE6CF3}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="2620" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="392">
   <si>
     <t>ID</t>
   </si>
@@ -410,9 +410,6 @@
     <t>A survey on different approaches for software test case prioritization</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>1041-1054</t>
   </si>
   <si>
@@ -624,9 +621,6 @@
   </si>
   <si>
     <t>Integrated optimization of test case selection and sequencing for reliability testing of the mainboard of Internet backbone routers</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>183-194</t>
@@ -884,12 +878,361 @@
 The results showed that mining and learning-based regression test case selection was reported in 39% of the studies, unit level testing was reported in 18% of the studies, and object-oriented environment (Java) was used in 26% of the studies. Structural faults, the most common target, was used in 55% of the studies. Overall, only 39% of the studies conducted followed experimental guidelines and are reproducible.
 There are 7 different cost measures, 13 different coverage types, and 5 fault-detection metrics reported in these studies. It is also observed that 70% of the studies being analyzed used cost as the effectiveness measure compared to 31% that used fault-detection capability and 16% that used coverage.</t>
   </si>
+  <si>
+    <t>1. 2020; 2. Prioritization</t>
+  </si>
+  <si>
+    <t>Probability-based</t>
+  </si>
+  <si>
+    <t>ML-based algorithms</t>
+  </si>
+  <si>
+    <t>ABB Robotics Norway2, Google Open Source Data Set</t>
+  </si>
+  <si>
+    <t>Industrial datasets. The datasets have 114, 2086, and 5555 test cases, respectively.</t>
+  </si>
+  <si>
+    <t>Normalized APFD</t>
+  </si>
+  <si>
+    <t>1. 2019; 2. Prioritization</t>
+  </si>
+  <si>
+    <t>Coverage-based</t>
+  </si>
+  <si>
+    <t>Search-based algorithms</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>APFD</t>
+  </si>
+  <si>
+    <t>SIR</t>
+  </si>
+  <si>
+    <t>C program, 35k test cases, 8k LOC</t>
+  </si>
+  <si>
+    <t>1. 2017; 2. Selection and Prioritization</t>
+  </si>
+  <si>
+    <t>Google Open Source Data Set</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>https://code.google.
+com/p/google-shared-dataset-of-test-suite-results</t>
+  </si>
+  <si>
+    <t>Failure-detection efficiency</t>
+  </si>
+  <si>
+    <t>Previous failure history</t>
+  </si>
+  <si>
+    <t>Software component metrics, coverage, fault detection history, execution time of the test cases</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>We should have skipped this paper in the quality appraisal phase, as it is not related.</t>
+  </si>
+  <si>
+    <t>Greedy algorithms, Search-based algorithms</t>
+  </si>
+  <si>
+    <t>APFD and M-Spreading</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/abs/10.1145/2884781.2884874</t>
+  </si>
+  <si>
+    <t>8 opensource java projects ranging between 1k and 67k tests and 7 and 5k tests</t>
+  </si>
+  <si>
+    <t>1. 2017; 2. Prioritization</t>
+  </si>
+  <si>
+    <t>Greedy algorithm</t>
+  </si>
+  <si>
+    <t>Two Apache projects: Tomcat and Camel</t>
+  </si>
+  <si>
+    <t>205k and 562k LOC, 624 and 3970 test cases</t>
+  </si>
+  <si>
+    <t>1. 2021; 2. Prioritization</t>
+  </si>
+  <si>
+    <t>Multi</t>
+  </si>
+  <si>
+    <t>Fault detection capability and test reliance score, estimated execution time</t>
+  </si>
+  <si>
+    <t>Cisco datasets related to VCS products, ABB Robotics Norway2, Google Open Source Data Set</t>
+  </si>
+  <si>
+    <t>Industrial dataset. The datasets span from 60 to 5555 test cases, respectively.</t>
+  </si>
+  <si>
+    <t>Average Percentage of Fault Detected per Cost</t>
+  </si>
+  <si>
+    <t>Open source dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120 to 406k lines of code. </t>
+  </si>
+  <si>
+    <t>Objects and methods</t>
+  </si>
+  <si>
+    <t>Number of the test cases executed before finding the first fault; number of distinct faults detected by a specific number of test cases; APFD</t>
+  </si>
+  <si>
+    <t>Model-based</t>
+  </si>
+  <si>
+    <t>53 to 1k LOC, 100 test input models</t>
+  </si>
+  <si>
+    <t>BibTeX2DocBook, UML2ER, CPL2SPL, Ecore2Maude</t>
+  </si>
+  <si>
+    <t>Search-based algorithms, Greedy algorithms, Random algorithms</t>
+  </si>
+  <si>
+    <t>1.2020; 2. Prioritization</t>
+  </si>
+  <si>
+    <t>26k to 140k LOC, 137 to 510 test cases</t>
+  </si>
+  <si>
+    <t>Rule coverage</t>
+  </si>
+  <si>
+    <t>Statement coverage, method coverage, branch coverage</t>
+  </si>
+  <si>
+    <t>Functions coverage, method call sequence, statement coverage, branch coverage</t>
+  </si>
+  <si>
+    <t>Graph-walk</t>
+  </si>
+  <si>
+    <t>Test cases are selected based on their failing rate</t>
+  </si>
+  <si>
+    <t>48 to 1099 classes, 26 to 485 test cases</t>
+  </si>
+  <si>
+    <t>Number of detected safety violations, precision of the detected safety violations, test suite reduction</t>
+  </si>
+  <si>
+    <t>APFD, Average Percentage of Fault Detected per Cost</t>
+  </si>
+  <si>
+    <t>14 versions of four Java programs downloaded from the Software-artifact Infrastructure Repository</t>
+  </si>
+  <si>
+    <t>1.89 to 58.34 KLOC, 78 to 500 test cases</t>
+  </si>
+  <si>
+    <t>1. 2025; 2. Selection</t>
+  </si>
+  <si>
+    <t>1. 2023; 2. Selection</t>
+  </si>
+  <si>
+    <t>Search-based algorithms, Greedy algorithms</t>
+  </si>
+  <si>
+    <t>Two proprietary systems</t>
+  </si>
+  <si>
+    <t>3k to 11k test cases</t>
+  </si>
+  <si>
+    <t>Function coverage, test size, failure rate, several additonal coverages</t>
+  </si>
+  <si>
+    <t>Hypervolume indicator</t>
+  </si>
+  <si>
+    <t>1.2022; 2. Prioritization</t>
+  </si>
+  <si>
+    <t>Greedy algorithms</t>
+  </si>
+  <si>
+    <t>Search-based algorithms, Greedy algorithms, Similarity-based algorithms</t>
+  </si>
+  <si>
+    <t>19 versions of four Java programs downloaded from the Software-artifact Infrastructure Repository</t>
+  </si>
+  <si>
+    <t>1.89 to 80.40 KLOC, 78 to 500 test cases</t>
+  </si>
+  <si>
+    <t>Statement, branch, and method coverage</t>
+  </si>
+  <si>
+    <t>1. 2018; 2. Prioritization</t>
+  </si>
+  <si>
+    <t>1. 2017; 2. Selection</t>
+  </si>
+  <si>
+    <t>33 versions of seven open source Java projects</t>
+  </si>
+  <si>
+    <t>24 to 2,516 test cases</t>
+  </si>
+  <si>
+    <t>Static and dynamic stetement and  method coverage</t>
+  </si>
+  <si>
+    <t>1.2018; 2. Prioritization</t>
+  </si>
+  <si>
+    <t>Single-objective greedy, hybrid, and multi-objective optimization</t>
+  </si>
+  <si>
+    <t>5k to 553k test cases</t>
+  </si>
+  <si>
+    <t>7 systems from Defects4J</t>
+  </si>
+  <si>
+    <t>Average percentage of mutants killed, average percentage of mutation distinguished</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>Statement coverage</t>
+  </si>
+  <si>
+    <t>5 faults of each of the 7 systems from Defects4J</t>
+  </si>
+  <si>
+    <t>1. 2016; 2. Prioritization</t>
+  </si>
+  <si>
+    <t>Greedy and random algorithms, constraint solver</t>
+  </si>
+  <si>
+    <t>The greedy algorithm is used as a secondary objective together with defect proneness</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>APFD and APFDc</t>
+  </si>
+  <si>
+    <t>Greedy and random algorithms</t>
+  </si>
+  <si>
+    <t>Location information</t>
+  </si>
+  <si>
+    <t>9 to 54 test cases</t>
+  </si>
+  <si>
+    <t>It could be out of scope</t>
+  </si>
+  <si>
+    <t>Dynamic programming</t>
+  </si>
+  <si>
+    <t>1. 2019; 2. Selection and Prioritization</t>
+  </si>
+  <si>
+    <t>A manually developed case study</t>
+  </si>
+  <si>
+    <t>1,000 scenarios</t>
+  </si>
+  <si>
+    <t>memory consumption</t>
+  </si>
+  <si>
+    <t>1. 2013; 2. Prioritization</t>
+  </si>
+  <si>
+    <t>Requirement-based</t>
+  </si>
+  <si>
+    <t>An industrial case study</t>
+  </si>
+  <si>
+    <t>Two systems</t>
+  </si>
+  <si>
+    <t>6.82 to 30.30 KLOC, 42 to 142 test cases</t>
+  </si>
+  <si>
+    <t>Clustering methods</t>
+  </si>
+  <si>
+    <t>Requirement-test case traceability matrix</t>
+  </si>
+  <si>
+    <t>APFD and Jaccard coefficient</t>
+  </si>
+  <si>
+    <t>5 programs from the SIR repository</t>
+  </si>
+  <si>
+    <t>5 programs from the SIR repository - each with 5 versions</t>
+  </si>
+  <si>
+    <t>White-box and black box methods, including greedy algorithms</t>
+  </si>
+  <si>
+    <t>statement, branch, method coverages, spanning statements and branches, branch diversity, t-wise, input model diversity, input model mutation, output diversity, …</t>
+  </si>
+  <si>
+    <t>4k to 58k test cases</t>
+  </si>
+  <si>
+    <t>1. 2012; 2. Prioritization</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>1. 2015; 2. Selection</t>
+  </si>
+  <si>
+    <t>374 to 122K LOC; 215 to 13,583 test cases</t>
+  </si>
+  <si>
+    <t>Greedy and search-based algorithms</t>
+  </si>
+  <si>
+    <t>Statement coverage, execution cost, past faults</t>
+  </si>
+  <si>
+    <t>Size of Pareto frontier, number of non-dominated solutions, hypervolume</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -958,12 +1301,44 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -1269,1237 +1644,1930 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW32"/>
+  <dimension ref="A1:AX32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.1640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="48.33203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="0" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="8" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="66.1640625" style="5" hidden="1" customWidth="1"/>
+    <col min="11" max="18" width="0" style="5" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="58.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="27" width="0" style="5" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="22.5" style="5" hidden="1" customWidth="1"/>
+    <col min="29" max="39" width="0" style="5" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="8.83203125" style="8"/>
+    <col min="41" max="49" width="24.83203125" style="7" customWidth="1"/>
+    <col min="50" max="50" width="38.33203125" style="7" customWidth="1"/>
+    <col min="51" max="16384" width="8.83203125" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:50" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="AX1" s="10" t="s">
+        <v>296</v>
+      </c>
     </row>
-    <row r="2" spans="1:49">
-      <c r="A2">
+    <row r="2" spans="1:50" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
         <v>9260075</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="5">
         <v>2020</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AM2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AN2" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="AO2" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="AS2" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="AU2" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="AV2" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="AW2" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:49">
-      <c r="A3">
+    <row r="3" spans="1:50" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
         <v>8914670</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>2019</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AM3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AN3" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="AO3" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="AP3" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="AS3" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="AT3" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="AU3" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="AV3" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="AW3" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:49">
-      <c r="A4">
+    <row r="4" spans="1:50" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>8305938</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>2017</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AM4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AN4" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="AO4" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="AP4" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="AQ4" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="AS4" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="AT4" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="AU4" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="AV4" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="AW4" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:49">
-      <c r="A5">
+    <row r="5" spans="1:50" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>8453107</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>2018</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AM5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AN5" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="AX5" s="7" t="s">
+        <v>297</v>
+      </c>
     </row>
-    <row r="6" spans="1:49">
-      <c r="A6">
+    <row r="6" spans="1:50" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>8754416</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>2019</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="8">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AM6" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AN6" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="AO6" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="AP6" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ6" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AR6" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="AS6" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="AT6" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="AU6" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="AV6" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="AW6" s="7">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:49">
-      <c r="A7">
+    <row r="7" spans="1:50" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>7582788</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>2016</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AM7" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AN7" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="AX7" s="7" t="s">
+        <v>297</v>
+      </c>
     </row>
-    <row r="8" spans="1:49">
-      <c r="A8" t="s">
+    <row r="8" spans="1:50" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <v>2017</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="5">
         <v>9781450344869</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="S8" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="5">
         <v>7</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V8" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AM8" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AN8" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="AO8" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="AP8" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ8" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="AS8" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="AT8" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="AU8" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="AV8" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="AW8" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:49">
-      <c r="A9" t="s">
+    <row r="9" spans="1:50" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <v>2021</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="8">
         <v>33</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="8">
+        <v>9</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="O9" t="s">
+      <c r="S9" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="AM9" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AN9" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AO9" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="AP9" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="12"/>
+      <c r="AU9" s="12"/>
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="12"/>
+    </row>
+    <row r="10" spans="1:50" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>133</v>
       </c>
+      <c r="B10" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2019</v>
+      </c>
+      <c r="G10" s="8">
+        <v>153</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM10" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="AP10" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ10" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="AR10" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS10" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="AT10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="AU10" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="AV10" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="AW10" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:49">
-      <c r="A10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:50" ht="80" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G11" s="8">
         <v>135</v>
       </c>
-      <c r="E10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10">
+      <c r="I11" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM11" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="AP11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="AS11" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="AT11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="AU11" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="AV11" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G12" s="8">
+        <v>34</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM12" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO12" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="AP12" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="AQ12" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="AR12" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="AS12" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="AT12" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="AU12" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="AV12" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="AW12" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2020</v>
+      </c>
+      <c r="G13" s="8">
+        <v>163</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="AM13" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO13" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="AP13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ13" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="AR13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="AS13" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="AT13" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="AU13" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="AV13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="AW13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2025</v>
+      </c>
+      <c r="G14" s="8">
+        <v>160</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM14" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO14" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="AP14" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="AQ14" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="AR14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="AS14" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="AT14" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="AU14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="AV14" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="AW14" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" ht="64" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2020</v>
+      </c>
+      <c r="G15" s="8">
+        <v>169</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM15" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO15" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP15" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ15" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="AR15" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="AS15" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="AT15" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="AU15" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="AV15" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="AW15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G16" s="8">
+        <v>299</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM16" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="AN16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX16" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2023</v>
+      </c>
+      <c r="G17" s="8">
+        <v>205</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM17" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO17" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="AP17" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ17" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="AR17" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS17" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="AT17" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="AU17" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="AV17" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="AW17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" ht="64" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G18" s="8">
+        <v>192</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM18" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO18" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="AP18" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ18" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="AR18" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="AS18" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="AT18" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="AU18" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="AV18" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="AW18" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" ht="32" x14ac:dyDescent="0.2">
+      <c r="C19" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2018</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="AN19" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="AO19" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="AP19" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="AQ19" s="12"/>
+      <c r="AR19" s="12"/>
+      <c r="AS19" s="12"/>
+      <c r="AT19" s="12"/>
+      <c r="AU19" s="12"/>
+      <c r="AV19" s="12"/>
+      <c r="AW19" s="12"/>
+    </row>
+    <row r="20" spans="1:50" ht="32" x14ac:dyDescent="0.2">
+      <c r="C20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="5">
+        <v>2017</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AN20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO20" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="AP20" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ20" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="AR20" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="AS20" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="AT20" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="AU20" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="AV20" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="AW20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50" ht="48" x14ac:dyDescent="0.2">
+      <c r="C21" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F21" s="5">
         <v>2019</v>
       </c>
-      <c r="G10">
-        <v>153</v>
-      </c>
-      <c r="I10" t="s">
-        <v>137</v>
-      </c>
-      <c r="J10" t="s">
-        <v>138</v>
-      </c>
-      <c r="K10" t="s">
-        <v>139</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="M10" t="s">
-        <v>141</v>
-      </c>
-      <c r="O10" t="s">
-        <v>142</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>144</v>
-      </c>
-      <c r="AN10" t="s">
+      <c r="J21" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN21" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="AO21" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="AP21" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ21" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="AR21" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS21" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AT21" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="AU21" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="AV21" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="AW21" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:49">
-      <c r="A11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11">
+    <row r="22" spans="1:50" ht="32" x14ac:dyDescent="0.2">
+      <c r="C22" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2019</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="AN22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO22" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="AP22" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ22" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="AR22" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="AS22" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="AT22" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="AU22" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="AV22" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="AW22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX22" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2016</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="AN23" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO23" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP23" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AQ23" s="12"/>
+      <c r="AR23" s="12"/>
+      <c r="AS23" s="12"/>
+      <c r="AT23" s="12"/>
+      <c r="AU23" s="12"/>
+      <c r="AV23" s="12"/>
+      <c r="AW23" s="12"/>
+    </row>
+    <row r="24" spans="1:50" ht="32" x14ac:dyDescent="0.2">
+      <c r="C24" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F24" s="5">
         <v>2018</v>
       </c>
-      <c r="G11">
-        <v>135</v>
-      </c>
-      <c r="I11" t="s">
-        <v>148</v>
-      </c>
-      <c r="J11" t="s">
-        <v>149</v>
-      </c>
-      <c r="K11" t="s">
-        <v>150</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="M11" t="s">
-        <v>141</v>
-      </c>
-      <c r="O11" t="s">
-        <v>142</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>153</v>
-      </c>
-      <c r="AN11" t="s">
+      <c r="J24" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN24" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO24" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="AP24" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AQ24" s="12"/>
+      <c r="AR24" s="12"/>
+      <c r="AS24" s="12"/>
+      <c r="AT24" s="12"/>
+      <c r="AU24" s="12"/>
+      <c r="AV24" s="12"/>
+      <c r="AW24" s="12"/>
+    </row>
+    <row r="25" spans="1:50" ht="32" x14ac:dyDescent="0.2">
+      <c r="C25" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2018</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="AN25" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="AO25" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="AP25" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="AQ25" s="12"/>
+      <c r="AR25" s="12"/>
+      <c r="AS25" s="12"/>
+      <c r="AT25" s="12"/>
+      <c r="AU25" s="12"/>
+      <c r="AV25" s="12"/>
+      <c r="AW25" s="12"/>
+    </row>
+    <row r="26" spans="1:50" ht="32" x14ac:dyDescent="0.2">
+      <c r="C26" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F26" s="5">
+        <v>2019</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AN26" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="AO26" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="AP26" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="AQ26" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="AR26" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="AS26" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="AT26" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="AU26" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="AV26" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="AW26" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AX26" s="7" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="12" spans="1:49">
-      <c r="A12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" t="s">
-        <v>155</v>
-      </c>
-      <c r="E12" t="s">
-        <v>156</v>
-      </c>
-      <c r="F12">
-        <v>2022</v>
-      </c>
-      <c r="G12">
-        <v>34</v>
-      </c>
-      <c r="H12" t="s">
-        <v>157</v>
-      </c>
-      <c r="I12" t="s">
-        <v>158</v>
-      </c>
-      <c r="J12" t="s">
-        <v>159</v>
-      </c>
-      <c r="K12" t="s">
-        <v>160</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="M12" t="s">
-        <v>129</v>
-      </c>
-      <c r="O12" t="s">
-        <v>130</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN12" t="s">
+    <row r="27" spans="1:50" ht="32" x14ac:dyDescent="0.2">
+      <c r="C27" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2019</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AN27" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="AO27" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="AP27" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="AQ27" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="AR27" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="AS27" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AT27" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="AU27" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="AV27" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="AW27" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:49">
-      <c r="A13" t="s">
-        <v>164</v>
-      </c>
-      <c r="B13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13">
-        <v>2020</v>
-      </c>
-      <c r="G13">
-        <v>163</v>
-      </c>
-      <c r="I13" t="s">
-        <v>167</v>
-      </c>
-      <c r="J13" t="s">
-        <v>168</v>
-      </c>
-      <c r="K13" t="s">
-        <v>169</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="M13" t="s">
-        <v>141</v>
-      </c>
-      <c r="O13" t="s">
-        <v>142</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>172</v>
-      </c>
-      <c r="AN13" t="s">
+    <row r="28" spans="1:50" ht="32" x14ac:dyDescent="0.2">
+      <c r="C28" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F28" s="5">
+        <v>2013</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AN28" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="AO28" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="AP28" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="AQ28" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="AR28" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="AS28" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="AT28" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="AU28" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="AV28" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="AW28" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:49">
-      <c r="A14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E14" t="s">
-        <v>175</v>
-      </c>
-      <c r="F14">
-        <v>2025</v>
-      </c>
-      <c r="G14">
-        <v>160</v>
-      </c>
-      <c r="I14" t="s">
-        <v>176</v>
-      </c>
-      <c r="J14" t="s">
-        <v>177</v>
-      </c>
-      <c r="K14" t="s">
-        <v>178</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="M14" t="s">
-        <v>180</v>
-      </c>
-      <c r="O14" t="s">
-        <v>181</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>183</v>
-      </c>
-      <c r="AN14" t="s">
+    <row r="29" spans="1:50" ht="96" x14ac:dyDescent="0.2">
+      <c r="C29" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F29" s="5">
+        <v>2016</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN29" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="AO29" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP29" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ29" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="AR29" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="AS29" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="AT29" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="AU29" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="AV29" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="AW29" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:49">
-      <c r="A15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E15" t="s">
-        <v>186</v>
-      </c>
-      <c r="F15">
-        <v>2020</v>
-      </c>
-      <c r="G15">
-        <v>169</v>
-      </c>
-      <c r="I15" t="s">
-        <v>187</v>
-      </c>
-      <c r="J15" t="s">
-        <v>188</v>
-      </c>
-      <c r="K15" t="s">
-        <v>189</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="M15" t="s">
-        <v>141</v>
-      </c>
-      <c r="O15" t="s">
-        <v>142</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>192</v>
-      </c>
-      <c r="AN15" t="s">
+    <row r="30" spans="1:50" ht="16" x14ac:dyDescent="0.2">
+      <c r="C30" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F30" s="5">
+        <v>2013</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="AN30" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO30" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="AP30" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ30" s="12"/>
+      <c r="AR30" s="12"/>
+      <c r="AS30" s="12"/>
+      <c r="AT30" s="12"/>
+      <c r="AU30" s="12"/>
+      <c r="AV30" s="12"/>
+      <c r="AW30" s="12"/>
+    </row>
+    <row r="31" spans="1:50" ht="48" x14ac:dyDescent="0.2">
+      <c r="C31" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F31" s="5">
+        <v>2014</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AN31" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="AO31" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="AP31" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ31" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="AR31" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="AS31" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="AT31" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="AU31" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="AV31" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="AW31" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:49">
-      <c r="A16" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" t="s">
-        <v>195</v>
-      </c>
-      <c r="F16">
-        <v>2022</v>
-      </c>
-      <c r="G16">
-        <v>299</v>
-      </c>
-      <c r="H16" t="s">
-        <v>196</v>
-      </c>
-      <c r="I16" t="s">
-        <v>197</v>
-      </c>
-      <c r="J16" t="s">
-        <v>198</v>
-      </c>
-      <c r="K16" t="s">
-        <v>199</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="M16" t="s">
-        <v>201</v>
-      </c>
-      <c r="O16" t="s">
-        <v>202</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>204</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>205</v>
-      </c>
-      <c r="B17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" t="s">
-        <v>206</v>
-      </c>
-      <c r="E17" t="s">
-        <v>207</v>
-      </c>
-      <c r="F17">
-        <v>2023</v>
-      </c>
-      <c r="G17">
-        <v>205</v>
-      </c>
-      <c r="I17" t="s">
-        <v>208</v>
-      </c>
-      <c r="J17" t="s">
-        <v>209</v>
-      </c>
-      <c r="K17" t="s">
-        <v>210</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="M17" t="s">
-        <v>141</v>
-      </c>
-      <c r="O17" t="s">
-        <v>142</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>213</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>214</v>
-      </c>
-      <c r="B18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" t="s">
-        <v>215</v>
-      </c>
-      <c r="E18" t="s">
-        <v>216</v>
-      </c>
-      <c r="F18">
-        <v>2022</v>
-      </c>
-      <c r="G18">
-        <v>192</v>
-      </c>
-      <c r="I18" t="s">
-        <v>217</v>
-      </c>
-      <c r="J18" t="s">
-        <v>218</v>
-      </c>
-      <c r="K18" t="s">
-        <v>219</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M18" t="s">
-        <v>141</v>
-      </c>
-      <c r="O18" t="s">
-        <v>142</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>222</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40">
-      <c r="C19" t="s">
-        <v>223</v>
-      </c>
-      <c r="D19" t="s">
-        <v>224</v>
-      </c>
-      <c r="E19" t="s">
+    <row r="32" spans="1:50" ht="32" x14ac:dyDescent="0.2">
+      <c r="C32" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F32" s="5">
+        <v>2017</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AN32" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="F19">
-        <v>2018</v>
-      </c>
-      <c r="J19" t="s">
-        <v>226</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40">
-      <c r="C20" t="s">
-        <v>228</v>
-      </c>
-      <c r="D20" t="s">
-        <v>229</v>
-      </c>
-      <c r="E20" t="s">
-        <v>230</v>
-      </c>
-      <c r="F20">
-        <v>2017</v>
-      </c>
-      <c r="J20" t="s">
-        <v>231</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40">
-      <c r="C21" t="s">
-        <v>232</v>
-      </c>
-      <c r="D21" t="s">
-        <v>233</v>
-      </c>
-      <c r="E21" t="s">
-        <v>234</v>
-      </c>
-      <c r="F21">
-        <v>2019</v>
-      </c>
-      <c r="J21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40">
-      <c r="C22" t="s">
-        <v>236</v>
-      </c>
-      <c r="D22" t="s">
-        <v>237</v>
-      </c>
-      <c r="E22" t="s">
-        <v>238</v>
-      </c>
-      <c r="F22">
-        <v>2019</v>
-      </c>
-      <c r="J22" t="s">
-        <v>239</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40">
-      <c r="C23" t="s">
-        <v>240</v>
-      </c>
-      <c r="D23" t="s">
-        <v>241</v>
-      </c>
-      <c r="E23" t="s">
-        <v>242</v>
-      </c>
-      <c r="F23">
-        <v>2016</v>
-      </c>
-      <c r="J23" t="s">
-        <v>243</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40">
-      <c r="C24" t="s">
-        <v>244</v>
-      </c>
-      <c r="D24" t="s">
-        <v>245</v>
-      </c>
-      <c r="E24" t="s">
-        <v>246</v>
-      </c>
-      <c r="F24">
-        <v>2018</v>
-      </c>
-      <c r="J24" t="s">
-        <v>126</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40">
-      <c r="C25" t="s">
-        <v>247</v>
-      </c>
-      <c r="D25" t="s">
-        <v>248</v>
-      </c>
-      <c r="E25" t="s">
-        <v>249</v>
-      </c>
-      <c r="F25">
-        <v>2018</v>
-      </c>
-      <c r="J25" t="s">
-        <v>250</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40">
-      <c r="C26" t="s">
-        <v>251</v>
-      </c>
-      <c r="D26" t="s">
-        <v>252</v>
-      </c>
-      <c r="E26" t="s">
-        <v>253</v>
-      </c>
-      <c r="F26">
-        <v>2019</v>
-      </c>
-      <c r="J26" t="s">
-        <v>254</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:40">
-      <c r="C27" t="s">
-        <v>255</v>
-      </c>
-      <c r="D27" t="s">
-        <v>256</v>
-      </c>
-      <c r="E27" t="s">
-        <v>257</v>
-      </c>
-      <c r="F27">
-        <v>2019</v>
-      </c>
-      <c r="J27" t="s">
-        <v>258</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40">
-      <c r="C28" t="s">
-        <v>259</v>
-      </c>
-      <c r="D28" t="s">
-        <v>237</v>
-      </c>
-      <c r="E28" t="s">
-        <v>260</v>
-      </c>
-      <c r="F28">
-        <v>2013</v>
-      </c>
-      <c r="J28" t="s">
-        <v>261</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:40">
-      <c r="C29" t="s">
-        <v>262</v>
-      </c>
-      <c r="D29" t="s">
-        <v>263</v>
-      </c>
-      <c r="E29" t="s">
-        <v>264</v>
-      </c>
-      <c r="F29">
-        <v>2016</v>
-      </c>
-      <c r="J29" t="s">
-        <v>265</v>
-      </c>
-      <c r="AN29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:40">
-      <c r="C30" t="s">
-        <v>266</v>
-      </c>
-      <c r="D30" t="s">
-        <v>267</v>
-      </c>
-      <c r="E30" t="s">
-        <v>268</v>
-      </c>
-      <c r="F30">
-        <v>2013</v>
-      </c>
-      <c r="J30" t="s">
-        <v>269</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:40">
-      <c r="C31" t="s">
-        <v>270</v>
-      </c>
-      <c r="D31" t="s">
-        <v>271</v>
-      </c>
-      <c r="E31" t="s">
-        <v>272</v>
-      </c>
-      <c r="F31">
-        <v>2014</v>
-      </c>
-      <c r="J31" t="s">
-        <v>273</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:40">
-      <c r="C32" t="s">
-        <v>274</v>
-      </c>
-      <c r="D32" t="s">
-        <v>275</v>
-      </c>
-      <c r="E32" t="s">
-        <v>276</v>
-      </c>
-      <c r="F32">
-        <v>2017</v>
-      </c>
-      <c r="J32" t="s">
-        <v>277</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>227</v>
-      </c>
+      <c r="AO32" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="AP32" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="AQ32" s="12"/>
+      <c r="AR32" s="12"/>
+      <c r="AS32" s="12"/>
+      <c r="AT32" s="12"/>
+      <c r="AU32" s="12"/>
+      <c r="AV32" s="12"/>
+      <c r="AW32" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="AP9:AW9"/>
+    <mergeCell ref="AP19:AW19"/>
+    <mergeCell ref="AP25:AW25"/>
+    <mergeCell ref="AP32:AW32"/>
+    <mergeCell ref="AP23:AW23"/>
+    <mergeCell ref="AP24:AW24"/>
+    <mergeCell ref="AP30:AW30"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L11" r:id="rId1" xr:uid="{388BB5B7-2940-F34F-ADAC-9FB1BFBD1B90}"/>
@@ -2523,6 +3591,7 @@
     <hyperlink ref="S17" r:id="rId19" xr:uid="{247AD75B-F933-4277-B931-39DD21980575}"/>
     <hyperlink ref="L18" r:id="rId20" xr:uid="{C4D99D8A-0C2B-4E3F-8098-60548D5D8089}"/>
     <hyperlink ref="S18" r:id="rId21" xr:uid="{A0E2495D-B925-457F-8A26-682C8EE4BBBE}"/>
+    <hyperlink ref="AS6" r:id="rId22" xr:uid="{107D74DB-6B0E-154D-B396-692F728E8D7A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2549,8 +3618,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B6889C2593FACB4192549183B8B19287" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="32060b2073082e2092342fdaa07ba96e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab92c565-5003-4ac3-93a3-a3ce8796a3c0" xmlns:ns3="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="930e06c061e109ec993a06acfd2977e1" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B6889C2593FACB4192549183B8B19287" ma:contentTypeVersion="11" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="8f919e2780f892880bff7efb43d3db1d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab92c565-5003-4ac3-93a3-a3ce8796a3c0" xmlns:ns3="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1ca4d89da73e1329ebe7ff2e4ed471c6" ns2:_="" ns3:_="">
     <xsd:import namespace="ab92c565-5003-4ac3-93a3-a3ce8796a3c0"/>
     <xsd:import namespace="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50"/>
     <xsd:element name="properties">
@@ -2599,7 +3668,7 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="75195dc1-fe89-472b-8717-1a0640488213" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="75195dc1-fe89-472b-8717-1a0640488213" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -2653,8 +3722,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -2744,13 +3813,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23090AFA-087E-44CC-9E33-A4FB55B7B01B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23090AFA-087E-44CC-9E33-A4FB55B7B01B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="ab92c565-5003-4ac3-93a3-a3ce8796a3c0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91C10C48-AAE1-45D5-AD1E-921FB09E3C0B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91C10C48-AAE1-45D5-AD1E-921FB09E3C0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D4A6237-5E3F-4CC7-AF1F-8B07482FD731}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7F1317E-93FB-4CA5-A640-3509E46C0814}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ab92c565-5003-4ac3-93a3-a3ce8796a3c0"/>
+    <ds:schemaRef ds:uri="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>